--- a/Mars Automation Solution/Mars Competition Task/Test cases competition task.xlsx
+++ b/Mars Automation Solution/Mars Competition Task/Test cases competition task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mvpstudio\vscode\repos\mvpstudio\Mars Automation Solution\Mars Competition Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F838F33A-BE74-42B1-BA31-DEAC08649413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6A146A-0622-4944-A9B1-AC0889E3F2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="443">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -81,22 +81,10 @@
     <t>Validate user is able to add a new tag</t>
   </si>
   <si>
-    <t>Validate user is able to select a "Service Type"</t>
-  </si>
-  <si>
-    <t>Validate user is able to select a "Location Type"</t>
-  </si>
-  <si>
     <t>Validate user is able to select "Available days"</t>
   </si>
   <si>
-    <t>Validate user is able to select "Skill Trade"</t>
-  </si>
-  <si>
     <t>Validate user is able to Upload his "Work samples"</t>
-  </si>
-  <si>
-    <t>Validate"Active"</t>
   </si>
   <si>
     <t>Validate "save" button below share listings page</t>
@@ -315,29 +303,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>:Enter text in the "Title" textbox</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:Enter text upto 100 characters in Title textbox</t>
     </r>
   </si>
   <si>
@@ -832,83 +797,60 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:Click on "one off service" radio button near Service type</t>
-    </r>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click on"Share Skill" from Profile page</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to select " Skill exchange radio button"</t>
+  </si>
+  <si>
+    <t>User should be able to enter the service charge per hour in Credit textbox</t>
+  </si>
+  <si>
+    <t>User shouldnot  be able to enter more than 2 digits as service charge per hour in Credit textbox</t>
+  </si>
+  <si>
+    <t>User Should be able to enter tags in "Skill Exchange" textbox</t>
+  </si>
+  <si>
+    <t>User Should be able to delete  the Skill exchange tags</t>
+  </si>
+  <si>
+    <t>User should be able to fill all fields in service Listing page except subcategory in skill exchange text box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to select a "End date" from the calendar </t>
+  </si>
+  <si>
+    <t>User Should be able to uncheck days which are already selected</t>
+  </si>
+  <si>
+    <t>Check if user is able to Save his skills by clicking "Save" button</t>
+  </si>
+  <si>
+    <t>User should be able to fill all fields in service Listing page</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Click on"Share Skill" from Profile page</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to select " Skill exchange radio button"</t>
-  </si>
-  <si>
-    <t>User should be able to enter the service charge per hour in Credit textbox</t>
-  </si>
-  <si>
-    <t>User shouldnot  be able to enter more than 2 digits as service charge per hour in Credit textbox</t>
-  </si>
-  <si>
-    <t>User Should be able to enter tags in "Skill Exchange" textbox</t>
-  </si>
-  <si>
-    <t>User Should be able to delete  the Skill exchange tags</t>
-  </si>
-  <si>
-    <t>User should be able to fill all fields in service Listing page except subcategory in skill exchange text box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to select a "End date" from the calendar </t>
-  </si>
-  <si>
-    <t>User Should be able to uncheck days which are already selected</t>
-  </si>
-  <si>
-    <t>Check if user is able to Save his skills by clicking "Save" button</t>
-  </si>
-  <si>
-    <t>User should be able to fill all fields in service Listing page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -932,9 +874,6 @@
   </si>
   <si>
     <t>User Should not be able to enter already existing tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to select single/multiple files from a location </t>
   </si>
   <si>
     <t>Dropdown list of time should be displayed and user must be able to select a Endingtime from dropdown</t>
@@ -978,9 +917,6 @@
     <t xml:space="preserve">Check if user is able to see characters remaining under "Title"textbox  </t>
   </si>
   <si>
-    <t xml:space="preserve">Check if user is able to enter special characters in "Description" box </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1305,29 +1241,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>:Click on "+" from Work samples</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:Click on any file from a location and click open</t>
     </r>
   </si>
   <si>
@@ -2840,6 +2753,155 @@
   </si>
   <si>
     <t>User should be able to fill the details in "Service Listing" Page with radiobutton of "Active" as "Active"</t>
+  </si>
+  <si>
+    <t>Check if user is able to select group of days  from Available days</t>
+  </si>
+  <si>
+    <t>User should be able to click  inside day checkbox and select the multiple days available</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Click on inside Multiple days inside checkbox and select the days available</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to click  inside day checkbox and select the muliple days available</t>
+  </si>
+  <si>
+    <t>Validate user is able to select radio buttons from "Skill Trade"</t>
+  </si>
+  <si>
+    <t>Validate user is able to select radio buttons from"Active"</t>
+  </si>
+  <si>
+    <t>Validate user is able to select radio buttons from "Location Type"</t>
+  </si>
+  <si>
+    <t>Validate user is able to select radio buttons from"Service Type"</t>
+  </si>
+  <si>
+    <t>Check if user is able to deactivate the service which was in enabled status</t>
+  </si>
+  <si>
+    <t>Step 4:Enter the mandatory fields in service listing page and select radiobutton of "Active" as "Active"</t>
+  </si>
+  <si>
+    <t>User should be able to fill the fields in "Service Listing" Page with radiobutton of "Active" as "Active"</t>
+  </si>
+  <si>
+    <t>User should be able to see the message "Service is deactivated" and the active status is disabled now</t>
+  </si>
+  <si>
+    <t>Check if user is able to Activate the service which was in disabled status</t>
+  </si>
+  <si>
+    <t>Step 8:Now again click on "Active"</t>
+  </si>
+  <si>
+    <t>TC_010_004</t>
+  </si>
+  <si>
+    <t>User should be able to see the message "Service is Activated" and the active status is enabled now with blue colour</t>
+  </si>
+  <si>
+    <t>TC_009_010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Click on any file from a location.</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to select single/multiple files from a location .</t>
+  </si>
+  <si>
+    <t>TC_010_005</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Enter text upto 100 characters in Title textbox</t>
+    </r>
+  </si>
+  <si>
+    <t>Check if user is able to enter enter a special character as first character in "Description" box</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Click on "one off service" radio button near Service type</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2999,7 +3061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3048,6 +3110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3067,15 +3135,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3087,8 +3146,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3404,10 +3486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3436,14 +3518,14 @@
     </row>
     <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -3463,14 +3545,14 @@
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3479,7 +3561,7 @@
       <c r="B6" s="12"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -3488,7 +3570,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3497,7 +3579,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="14"/>
       <c r="D8" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -3506,7 +3588,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="14"/>
       <c r="D9" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -3515,7 +3597,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -3535,14 +3617,14 @@
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3551,7 +3633,7 @@
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
       <c r="D14" s="13" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -3560,7 +3642,7 @@
       <c r="B15" s="12"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -3569,7 +3651,7 @@
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
       <c r="D16" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -3578,7 +3660,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
       <c r="D17" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -3591,14 +3673,14 @@
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -3611,14 +3693,14 @@
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -3631,14 +3713,14 @@
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -3647,7 +3729,7 @@
       <c r="B24" s="12"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -3656,7 +3738,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -3669,14 +3751,14 @@
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="14" t="s">
-        <v>14</v>
+        <v>427</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E27" s="5"/>
     </row>
@@ -3685,7 +3767,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E28" s="5"/>
     </row>
@@ -3703,16 +3785,16 @@
       <c r="D30" s="14"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="14" t="s">
-        <v>15</v>
+      <c r="C31" s="13" t="s">
+        <v>426</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E31" s="5"/>
     </row>
@@ -3721,7 +3803,7 @@
       <c r="B32" s="12"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E32" s="5"/>
     </row>
@@ -3734,14 +3816,14 @@
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E34" s="5"/>
     </row>
@@ -3750,7 +3832,7 @@
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E35" s="5"/>
     </row>
@@ -3759,7 +3841,7 @@
       <c r="B36" s="12"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E36" s="5"/>
     </row>
@@ -3768,7 +3850,7 @@
       <c r="B37" s="12"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E37" s="5"/>
     </row>
@@ -3777,7 +3859,7 @@
       <c r="B38" s="12"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E38" s="5"/>
     </row>
@@ -3786,7 +3868,7 @@
       <c r="B39" s="12"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E39" s="5"/>
     </row>
@@ -3795,7 +3877,7 @@
       <c r="B40" s="12"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E40" s="5"/>
     </row>
@@ -3804,7 +3886,7 @@
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E41" s="5"/>
     </row>
@@ -3813,7 +3895,7 @@
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
       <c r="E42" s="5"/>
     </row>
@@ -3821,7 +3903,9 @@
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="D43" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3832,24 +3916,22 @@
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>255</v>
-      </c>
+      <c r="A45" s="12"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>273</v>
-      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
+      <c r="A46" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="B46" s="12"/>
-      <c r="C46" s="14"/>
+      <c r="C46" s="14" t="s">
+        <v>424</v>
+      </c>
       <c r="D46" s="14" t="s">
-        <v>416</v>
+        <v>264</v>
       </c>
       <c r="E46" s="5"/>
     </row>
@@ -3858,7 +3940,7 @@
       <c r="B47" s="12"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E47" s="5"/>
     </row>
@@ -3867,7 +3949,7 @@
       <c r="B48" s="12"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="E48" s="5"/>
     </row>
@@ -3876,7 +3958,7 @@
       <c r="B49" s="12"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E49" s="5"/>
     </row>
@@ -3884,28 +3966,28 @@
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="D50" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="A51" s="12"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>418</v>
-      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
+      <c r="A52" s="6" t="s">
+        <v>247</v>
+      </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="14"/>
+      <c r="C52" s="14" t="s">
+        <v>261</v>
+      </c>
       <c r="D52" s="14" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E52" s="5"/>
     </row>
@@ -3914,7 +3996,7 @@
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E53" s="5"/>
     </row>
@@ -3922,28 +4004,28 @@
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="D54" s="14" t="s">
+        <v>411</v>
+      </c>
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>257</v>
-      </c>
+      <c r="A55" s="12"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>421</v>
-      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
+      <c r="A56" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="B56" s="12"/>
-      <c r="C56" s="14"/>
+      <c r="C56" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="D56" s="14" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E56" s="5"/>
     </row>
@@ -3951,28 +4033,28 @@
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="D57" s="14" t="s">
+        <v>413</v>
+      </c>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>258</v>
-      </c>
+      <c r="A58" s="12"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>423</v>
-      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
+      <c r="A59" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="B59" s="12"/>
-      <c r="C59" s="14"/>
+      <c r="C59" s="14" t="s">
+        <v>425</v>
+      </c>
       <c r="D59" s="14" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E59" s="5"/>
     </row>
@@ -3980,28 +4062,28 @@
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+      <c r="D60" s="14" t="s">
+        <v>415</v>
+      </c>
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
-        <v>259</v>
-      </c>
+      <c r="A61" s="12"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
+      <c r="A62" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="B62" s="12"/>
-      <c r="C62" s="14"/>
+      <c r="C62" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="D62" s="14" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E62" s="5"/>
     </row>
@@ -4010,7 +4092,7 @@
       <c r="B63" s="12"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E63" s="5"/>
     </row>
@@ -4019,7 +4101,7 @@
       <c r="B64" s="12"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E64" s="5"/>
     </row>
@@ -4028,7 +4110,7 @@
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E65" s="5"/>
     </row>
@@ -4037,7 +4119,7 @@
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E66" s="5"/>
     </row>
@@ -4046,7 +4128,7 @@
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E67" s="5"/>
     </row>
@@ -4054,7 +4136,9 @@
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
+      <c r="D68" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4072,51 +4156,53 @@
       <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
+      <c r="A71" s="12" t="s">
+        <v>251</v>
+      </c>
       <c r="B71" s="12"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+      <c r="C71" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
-        <v>260</v>
-      </c>
+      <c r="A72" s="12"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
+      <c r="A73" s="12" t="s">
+        <v>252</v>
+      </c>
       <c r="B73" s="12"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="6"/>
+      <c r="C73" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>219</v>
+      </c>
       <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
-        <v>261</v>
-      </c>
+      <c r="A74" s="12"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="14" t="s">
-        <v>207</v>
-      </c>
+      <c r="C74" s="14"/>
       <c r="D74" s="14" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
-      <c r="C75" s="14"/>
+      <c r="C75" s="6"/>
       <c r="D75" s="14" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="E75" s="5"/>
     </row>
@@ -4125,16 +4211,16 @@
       <c r="B76" s="12"/>
       <c r="C76" s="6"/>
       <c r="D76" s="14" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
-      <c r="C77" s="6"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="14" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="E77" s="5"/>
     </row>
@@ -4143,16 +4229,16 @@
       <c r="B78" s="12"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="14" t="s">
-        <v>242</v>
+      <c r="D79" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E79" s="5"/>
     </row>
@@ -4161,17 +4247,15 @@
       <c r="B80" s="12"/>
       <c r="C80" s="14"/>
       <c r="D80" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="13" t="s">
-        <v>243</v>
-      </c>
+    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4293,11 +4377,11 @@
       <c r="D98" s="3"/>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
       <c r="E99" s="5"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -4341,13 +4425,6 @@
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4357,10 +4434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H300"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4387,30 +4464,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -4418,13 +4495,13 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -4432,13 +4509,13 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -4446,8 +4523,8 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -4456,17 +4533,17 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -4474,13 +4551,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -4488,13 +4565,13 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -4502,13 +4579,13 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -4516,13 +4593,13 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -4530,13 +4607,13 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="14" t="s">
-        <v>46</v>
+        <v>440</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -4554,17 +4631,17 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>99</v>
+      <c r="A13" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -4572,13 +4649,13 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -4586,13 +4663,13 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -4600,13 +4677,13 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -4624,17 +4701,17 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>100</v>
+      <c r="A18" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -4642,13 +4719,13 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -4656,13 +4733,13 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -4670,13 +4747,13 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -4694,17 +4771,17 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>152</v>
+      <c r="A23" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -4712,13 +4789,13 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -4726,13 +4803,13 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -4740,13 +4817,13 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -4764,17 +4841,17 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>160</v>
+      <c r="A28" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -4782,13 +4859,13 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -4796,13 +4873,13 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -4810,13 +4887,13 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -4824,13 +4901,13 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="18" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -4858,17 +4935,17 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>96</v>
+      <c r="A35" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -4876,13 +4953,13 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -4890,13 +4967,13 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -4904,13 +4981,13 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -4938,17 +5015,17 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>35</v>
+      <c r="A41" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -4956,13 +5033,13 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -4970,13 +5047,13 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -4984,13 +5061,13 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -5008,17 +5085,17 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="B46" s="22" t="s">
+      <c r="A46" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="D46" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -5026,13 +5103,13 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -5040,13 +5117,13 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -5054,13 +5131,13 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -5078,17 +5155,17 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>153</v>
+      <c r="A51" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>441</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -5096,13 +5173,13 @@
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="23"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
@@ -5110,13 +5187,13 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
@@ -5125,12 +5202,12 @@
     </row>
     <row r="54" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -5148,17 +5225,17 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>271</v>
+      <c r="A56" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>262</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -5166,13 +5243,13 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -5180,13 +5257,13 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
@@ -5194,13 +5271,13 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="24"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -5218,17 +5295,17 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>164</v>
+      <c r="A61" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
@@ -5236,13 +5313,13 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
@@ -5250,13 +5327,13 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="23"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
@@ -5264,13 +5341,13 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="13" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
@@ -5278,13 +5355,13 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="18" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
@@ -5302,17 +5379,17 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>51</v>
+      <c r="A67" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
@@ -5320,13 +5397,13 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="26"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
@@ -5334,13 +5411,13 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
@@ -5348,13 +5425,13 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="27"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
@@ -5382,17 +5459,17 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>54</v>
+      <c r="A73" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
@@ -5400,13 +5477,13 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="14"/>
-      <c r="B74" s="26"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
@@ -5414,13 +5491,13 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="26"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
@@ -5428,13 +5505,13 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
-      <c r="B76" s="26"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
@@ -5442,13 +5519,13 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="14"/>
-      <c r="B77" s="27"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
@@ -5476,17 +5553,17 @@
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>55</v>
+      <c r="A80" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
@@ -5494,13 +5571,13 @@
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
-      <c r="B81" s="26"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
@@ -5508,13 +5585,13 @@
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="14"/>
-      <c r="B82" s="26"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
@@ -5522,13 +5599,13 @@
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
-      <c r="B83" s="27"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="13" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
@@ -5546,17 +5623,17 @@
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>56</v>
+      <c r="A85" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
@@ -5564,13 +5641,13 @@
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="14"/>
-      <c r="B86" s="26"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
@@ -5578,13 +5655,13 @@
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="14"/>
-      <c r="B87" s="26"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
@@ -5592,13 +5669,13 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="14"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="29"/>
       <c r="C88" s="16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
@@ -5616,17 +5693,17 @@
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>57</v>
+      <c r="A90" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
@@ -5634,13 +5711,13 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="14"/>
-      <c r="B91" s="26"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
@@ -5648,13 +5725,13 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="14"/>
-      <c r="B92" s="26"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
@@ -5662,13 +5739,13 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="14"/>
-      <c r="B93" s="27"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
       <c r="C93" s="13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
@@ -5676,11 +5753,11 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="B94" s="34" t="s">
-        <v>170</v>
+      <c r="A94" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>162</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -5690,13 +5767,13 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="35"/>
-      <c r="B95" s="34"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
@@ -5704,13 +5781,13 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="35"/>
-      <c r="B96" s="34"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
@@ -5718,13 +5795,13 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="35"/>
-      <c r="B97" s="34"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -5732,13 +5809,13 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="35"/>
-      <c r="B98" s="34"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="13" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -5746,7 +5823,7 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="35"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="21"/>
       <c r="C99" s="7"/>
       <c r="D99" s="13"/>
@@ -5756,9 +5833,11 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="6"/>
-      <c r="B100" s="34" t="s">
-        <v>171</v>
+      <c r="A100" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>163</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="13"/>
@@ -5768,13 +5847,13 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="6"/>
-      <c r="B101" s="34"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -5782,15 +5861,13 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B102" s="34"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -5798,13 +5875,13 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="6"/>
-      <c r="B103" s="34"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -5812,13 +5889,13 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="6"/>
-      <c r="B104" s="34"/>
-      <c r="C104" s="7" t="s">
-        <v>128</v>
+      <c r="A104" s="29"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="13" t="s">
+        <v>442</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -5826,9 +5903,11 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="6"/>
-      <c r="B105" s="31" t="s">
-        <v>61</v>
+      <c r="A105" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="13"/>
@@ -5838,15 +5917,13 @@
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B106" s="32"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -5854,13 +5931,13 @@
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="6"/>
-      <c r="B107" s="32"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -5868,13 +5945,13 @@
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="6"/>
-      <c r="B108" s="32"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -5882,21 +5959,22 @@
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
-      <c r="B109" s="33"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="26"/>
       <c r="C109" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
+      <c r="B110" s="3"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -5905,17 +5983,17 @@
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>62</v>
+      <c r="A111" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
@@ -5923,13 +6001,13 @@
       <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="6"/>
-      <c r="B112" s="32"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -5937,13 +6015,13 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="6"/>
-      <c r="B113" s="32"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -5951,22 +6029,22 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="6"/>
-      <c r="B114" s="33"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="26"/>
       <c r="C114" s="13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
+      <c r="B115" s="14"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -5975,17 +6053,17 @@
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>75</v>
+      <c r="A116" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -5993,13 +6071,13 @@
       <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A117" s="6"/>
-      <c r="B117" s="23"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -6007,13 +6085,13 @@
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="6"/>
-      <c r="B118" s="23"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="25"/>
       <c r="C118" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -6021,13 +6099,13 @@
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="6"/>
-      <c r="B119" s="24"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="26"/>
       <c r="C119" s="13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -6045,17 +6123,17 @@
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B121" s="22" t="s">
-        <v>76</v>
+      <c r="A121" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -6063,13 +6141,13 @@
       <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A122" s="6"/>
-      <c r="B122" s="23"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="25"/>
       <c r="C122" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -6077,13 +6155,13 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="6"/>
-      <c r="B123" s="23"/>
+      <c r="A123" s="35"/>
+      <c r="B123" s="25"/>
       <c r="C123" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -6091,13 +6169,13 @@
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="6"/>
-      <c r="B124" s="24"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="26"/>
       <c r="C124" s="13" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -6115,17 +6193,17 @@
       <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B126" s="25" t="s">
-        <v>77</v>
+      <c r="A126" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
@@ -6133,13 +6211,13 @@
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="6"/>
-      <c r="B127" s="26"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="28"/>
       <c r="C127" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -6147,13 +6225,13 @@
       <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="6"/>
-      <c r="B128" s="26"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="28"/>
       <c r="C128" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -6161,13 +6239,13 @@
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A129" s="6"/>
-      <c r="B129" s="27"/>
+      <c r="A129" s="36"/>
+      <c r="B129" s="29"/>
       <c r="C129" s="13" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -6185,17 +6263,17 @@
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B131" s="25" t="s">
-        <v>78</v>
+      <c r="A131" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -6203,13 +6281,13 @@
       <c r="H131" s="6"/>
     </row>
     <row r="132" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A132" s="6"/>
-      <c r="B132" s="26"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="28"/>
       <c r="C132" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -6217,13 +6295,13 @@
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="6"/>
-      <c r="B133" s="26"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="28"/>
       <c r="C133" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
@@ -6231,13 +6309,13 @@
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="6"/>
-      <c r="B134" s="27"/>
+      <c r="A134" s="36"/>
+      <c r="B134" s="29"/>
       <c r="C134" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -6255,17 +6333,17 @@
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B136" s="25" t="s">
-        <v>272</v>
+      <c r="A136" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>263</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -6273,13 +6351,13 @@
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A137" s="6"/>
-      <c r="B137" s="26"/>
+      <c r="A137" s="35"/>
+      <c r="B137" s="28"/>
       <c r="C137" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
@@ -6287,13 +6365,13 @@
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A138" s="6"/>
-      <c r="B138" s="26"/>
+      <c r="A138" s="35"/>
+      <c r="B138" s="28"/>
       <c r="C138" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -6301,13 +6379,13 @@
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A139" s="6"/>
-      <c r="B139" s="27"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
@@ -6325,17 +6403,17 @@
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B141" s="25" t="s">
-        <v>84</v>
+      <c r="A141" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -6343,13 +6421,13 @@
       <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A142" s="6"/>
-      <c r="B142" s="26"/>
+      <c r="A142" s="35"/>
+      <c r="B142" s="28"/>
       <c r="C142" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -6357,13 +6435,13 @@
       <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A143" s="6"/>
-      <c r="B143" s="26"/>
+      <c r="A143" s="35"/>
+      <c r="B143" s="28"/>
       <c r="C143" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
@@ -6371,13 +6449,13 @@
       <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A144" s="6"/>
-      <c r="B144" s="27"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
@@ -6395,17 +6473,17 @@
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B146" s="25" t="s">
-        <v>86</v>
+      <c r="A146" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="B146" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
@@ -6413,13 +6491,13 @@
       <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A147" s="6"/>
-      <c r="B147" s="26"/>
+      <c r="A147" s="35"/>
+      <c r="B147" s="28"/>
       <c r="C147" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
@@ -6427,13 +6505,13 @@
       <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="6"/>
-      <c r="B148" s="26"/>
+      <c r="A148" s="35"/>
+      <c r="B148" s="28"/>
       <c r="C148" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
@@ -6441,13 +6519,13 @@
       <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A149" s="6"/>
-      <c r="B149" s="27"/>
+      <c r="A149" s="36"/>
+      <c r="B149" s="29"/>
       <c r="C149" s="14" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
@@ -6465,17 +6543,17 @@
       <c r="H150" s="6"/>
     </row>
     <row r="151" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A151" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B151" s="25" t="s">
-        <v>87</v>
+      <c r="A151" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D151" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -6483,13 +6561,13 @@
       <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A152" s="6"/>
-      <c r="B152" s="26"/>
+      <c r="A152" s="35"/>
+      <c r="B152" s="28"/>
       <c r="C152" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
@@ -6497,13 +6575,13 @@
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="6"/>
-      <c r="B153" s="26"/>
+      <c r="A153" s="35"/>
+      <c r="B153" s="28"/>
       <c r="C153" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -6511,69 +6589,73 @@
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A154" s="6"/>
-      <c r="B154" s="27"/>
+      <c r="A154" s="36"/>
+      <c r="B154" s="29"/>
       <c r="C154" s="14" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="13"/>
+    <row r="155" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A155" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B156" s="25" t="s">
-        <v>147</v>
-      </c>
+      <c r="A156" s="35"/>
+      <c r="B156" s="28"/>
       <c r="C156" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D156" s="13" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A157" s="6"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="13" t="s">
-        <v>43</v>
+    <row r="157" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="35"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D157" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A158" s="6"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="16" t="s">
-        <v>44</v>
+    <row r="158" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="35"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="13" t="s">
+        <v>422</v>
       </c>
       <c r="D158" s="13" t="s">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
@@ -6581,97 +6663,97 @@
       <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A159" s="6"/>
-      <c r="B159" s="26"/>
+      <c r="A159" s="36"/>
+      <c r="B159" s="29"/>
       <c r="C159" s="13" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D159" s="13" t="s">
-        <v>148</v>
+        <v>423</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
-    <row r="160" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>149</v>
-      </c>
+      <c r="B160" s="22"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="13"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
+    <row r="161" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A161" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
     <row r="162" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B162" s="28" t="s">
-        <v>273</v>
-      </c>
+      <c r="A162" s="35"/>
+      <c r="B162" s="28"/>
       <c r="C162" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
-    <row r="163" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A163" s="6"/>
-      <c r="B163" s="29"/>
-      <c r="C163" s="13" t="s">
-        <v>43</v>
+    <row r="163" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="35"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
-    <row r="164" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A164" s="6"/>
-      <c r="B164" s="29"/>
-      <c r="C164" s="16" t="s">
-        <v>129</v>
+    <row r="164" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A164" s="35"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="6"/>
-      <c r="B165" s="30"/>
-      <c r="C165" s="13" t="s">
-        <v>174</v>
+    <row r="165" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="36"/>
+      <c r="B165" s="29"/>
+      <c r="C165" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -6689,17 +6771,17 @@
       <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B167" s="28" t="s">
-        <v>274</v>
+      <c r="A167" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>264</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
@@ -6707,13 +6789,13 @@
       <c r="H167" s="6"/>
     </row>
     <row r="168" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A168" s="6"/>
-      <c r="B168" s="29"/>
+      <c r="A168" s="35"/>
+      <c r="B168" s="28"/>
       <c r="C168" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -6721,13 +6803,13 @@
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A169" s="6"/>
-      <c r="B169" s="29"/>
+      <c r="A169" s="35"/>
+      <c r="B169" s="28"/>
       <c r="C169" s="16" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -6735,13 +6817,13 @@
       <c r="H169" s="6"/>
     </row>
     <row r="170" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A170" s="6"/>
-      <c r="B170" s="30"/>
+      <c r="A170" s="36"/>
+      <c r="B170" s="29"/>
       <c r="C170" s="13" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -6759,17 +6841,17 @@
       <c r="H171" s="6"/>
     </row>
     <row r="172" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A172" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B172" s="28" t="s">
-        <v>275</v>
+      <c r="A172" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="B172" s="27" t="s">
+        <v>265</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -6777,13 +6859,13 @@
       <c r="H172" s="6"/>
     </row>
     <row r="173" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="6"/>
-      <c r="B173" s="29"/>
+      <c r="A173" s="35"/>
+      <c r="B173" s="28"/>
       <c r="C173" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -6791,13 +6873,13 @@
       <c r="H173" s="6"/>
     </row>
     <row r="174" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A174" s="6"/>
-      <c r="B174" s="29"/>
+      <c r="A174" s="35"/>
+      <c r="B174" s="28"/>
       <c r="C174" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -6805,67 +6887,69 @@
       <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="6"/>
+      <c r="A175" s="36"/>
       <c r="B175" s="29"/>
       <c r="C175" s="13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
-    <row r="176" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
-      <c r="B176" s="30"/>
-      <c r="C176" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D176" s="13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B176" s="14"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="17"/>
-      <c r="D177" s="17"/>
+    <row r="177" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A177" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="B177" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D177" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
     </row>
     <row r="178" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A178" s="6"/>
-      <c r="B178" s="28" t="s">
-        <v>379</v>
-      </c>
+      <c r="A178" s="35"/>
+      <c r="B178" s="28"/>
       <c r="C178" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
-    <row r="179" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A179" s="6"/>
-      <c r="B179" s="29"/>
-      <c r="C179" s="13" t="s">
-        <v>43</v>
+    <row r="179" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="35"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D179" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
@@ -6873,203 +6957,209 @@
       <c r="H179" s="6"/>
     </row>
     <row r="180" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A180" s="6"/>
-      <c r="B180" s="29"/>
-      <c r="C180" s="16" t="s">
-        <v>44</v>
+      <c r="A180" s="35"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A181" s="6"/>
+    <row r="181" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A181" s="36"/>
       <c r="B181" s="29"/>
       <c r="C181" s="13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
     </row>
-    <row r="182" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
-      <c r="B182" s="29"/>
-      <c r="C182" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D182" s="13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B182" s="14"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
     <row r="183" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A183" s="6"/>
-      <c r="B183" s="30"/>
+      <c r="A183" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="B183" s="27" t="s">
+        <v>370</v>
+      </c>
       <c r="C183" s="13" t="s">
-        <v>427</v>
+        <v>38</v>
       </c>
       <c r="D183" s="13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
     </row>
-    <row r="184" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="17"/>
-      <c r="D184" s="17"/>
+    <row r="184" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A184" s="35"/>
+      <c r="B184" s="28"/>
+      <c r="C184" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A185" s="6"/>
-      <c r="B185" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>42</v>
+    <row r="185" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="35"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
     </row>
-    <row r="186" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A186" s="6"/>
-      <c r="B186" s="29"/>
+    <row r="186" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="35"/>
+      <c r="B186" s="28"/>
       <c r="C186" s="13" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A187" s="6"/>
-      <c r="B187" s="29"/>
-      <c r="C187" s="16" t="s">
-        <v>44</v>
+    <row r="187" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A187" s="35"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A188" s="6"/>
+    <row r="188" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A188" s="36"/>
       <c r="B188" s="29"/>
       <c r="C188" s="13" t="s">
-        <v>175</v>
+        <v>418</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
-      <c r="B189" s="30"/>
-      <c r="C189" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="D189" s="13" t="s">
-        <v>426</v>
-      </c>
+      <c r="B189" s="6"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="17"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
     </row>
-    <row r="190" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A190" s="6"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="17"/>
-      <c r="D190" s="17"/>
+    <row r="190" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A190" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
     </row>
-    <row r="191" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="17"/>
-      <c r="D191" s="17"/>
+    <row r="191" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A191" s="35"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D191" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
     </row>
-    <row r="192" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A192" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B192" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>42</v>
+    <row r="192" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="35"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D192" s="13" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
     </row>
-    <row r="193" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A193" s="6"/>
-      <c r="B193" s="32"/>
+    <row r="193" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="35"/>
+      <c r="B193" s="28"/>
       <c r="C193" s="13" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
     </row>
-    <row r="194" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A194" s="6"/>
-      <c r="B194" s="32"/>
-      <c r="C194" s="16" t="s">
-        <v>44</v>
+    <row r="194" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A194" s="35"/>
+      <c r="B194" s="29"/>
+      <c r="C194" s="13" t="s">
+        <v>416</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>30</v>
+        <v>417</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
@@ -7077,14 +7167,10 @@
       <c r="H194" s="6"/>
     </row>
     <row r="195" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="6"/>
-      <c r="B195" s="33"/>
-      <c r="C195" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="D195" s="13" t="s">
-        <v>133</v>
-      </c>
+      <c r="A195" s="36"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="17"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
@@ -7092,26 +7178,26 @@
     </row>
     <row r="196" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="13"/>
-      <c r="D196" s="13"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="17"/>
+      <c r="D196" s="17"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
     </row>
     <row r="197" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A197" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B197" s="31" t="s">
-        <v>63</v>
+      <c r="A197" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="B197" s="24" t="s">
+        <v>267</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
@@ -7119,13 +7205,13 @@
       <c r="H197" s="6"/>
     </row>
     <row r="198" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A198" s="6"/>
-      <c r="B198" s="32"/>
+      <c r="A198" s="35"/>
+      <c r="B198" s="25"/>
       <c r="C198" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -7133,13 +7219,13 @@
       <c r="H198" s="6"/>
     </row>
     <row r="199" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A199" s="6"/>
-      <c r="B199" s="32"/>
+      <c r="A199" s="35"/>
+      <c r="B199" s="25"/>
       <c r="C199" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
@@ -7147,13 +7233,13 @@
       <c r="H199" s="6"/>
     </row>
     <row r="200" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A200" s="6"/>
-      <c r="B200" s="33"/>
-      <c r="C200" s="16" t="s">
-        <v>177</v>
+      <c r="A200" s="36"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -7162,8 +7248,8 @@
     </row>
     <row r="201" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="16"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="13"/>
       <c r="D201" s="13"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
@@ -7171,17 +7257,17 @@
       <c r="H201" s="6"/>
     </row>
     <row r="202" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A202" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B202" s="31" t="s">
-        <v>64</v>
+      <c r="A202" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="B202" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
@@ -7189,13 +7275,13 @@
       <c r="H202" s="6"/>
     </row>
     <row r="203" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A203" s="6"/>
-      <c r="B203" s="32"/>
+      <c r="A203" s="35"/>
+      <c r="B203" s="25"/>
       <c r="C203" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -7203,13 +7289,13 @@
       <c r="H203" s="6"/>
     </row>
     <row r="204" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A204" s="6"/>
-      <c r="B204" s="32"/>
+      <c r="A204" s="35"/>
+      <c r="B204" s="25"/>
       <c r="C204" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
@@ -7217,13 +7303,13 @@
       <c r="H204" s="6"/>
     </row>
     <row r="205" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A205" s="6"/>
-      <c r="B205" s="33"/>
-      <c r="C205" s="19" t="s">
-        <v>65</v>
+      <c r="A205" s="36"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
@@ -7232,8 +7318,8 @@
     </row>
     <row r="206" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="19"/>
+      <c r="B206" s="14"/>
+      <c r="C206" s="16"/>
       <c r="D206" s="13"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
@@ -7241,17 +7327,17 @@
       <c r="H206" s="6"/>
     </row>
     <row r="207" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A207" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B207" s="25" t="s">
-        <v>66</v>
+      <c r="A207" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="B207" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D207" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -7259,13 +7345,13 @@
       <c r="H207" s="6"/>
     </row>
     <row r="208" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A208" s="6"/>
-      <c r="B208" s="26"/>
+      <c r="A208" s="35"/>
+      <c r="B208" s="25"/>
       <c r="C208" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D208" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
@@ -7273,125 +7359,125 @@
       <c r="H208" s="6"/>
     </row>
     <row r="209" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A209" s="6"/>
-      <c r="B209" s="26"/>
+      <c r="A209" s="35"/>
+      <c r="B209" s="25"/>
       <c r="C209" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="6"/>
     </row>
-    <row r="210" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="6"/>
+    <row r="210" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A210" s="36"/>
       <c r="B210" s="26"/>
-      <c r="C210" s="13" t="s">
-        <v>178</v>
+      <c r="C210" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
     </row>
-    <row r="211" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
-      <c r="B211" s="26"/>
-      <c r="C211" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D211" s="13" t="s">
-        <v>143</v>
-      </c>
+      <c r="B211" s="14"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="13"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
       <c r="H211" s="6"/>
     </row>
-    <row r="212" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A212" s="6"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="6" t="s">
-        <v>268</v>
+    <row r="212" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A212" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="B212" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D212" s="13" t="s">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
     </row>
-    <row r="213" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="6"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="13"/>
+    <row r="213" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A213" s="35"/>
+      <c r="B213" s="28"/>
+      <c r="C213" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D213" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
       <c r="H213" s="6"/>
     </row>
-    <row r="214" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A214" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B214" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C214" s="13" t="s">
-        <v>42</v>
+    <row r="214" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A214" s="35"/>
+      <c r="B214" s="28"/>
+      <c r="C214" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D214" s="13" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
       <c r="H214" s="6"/>
     </row>
-    <row r="215" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A215" s="6"/>
-      <c r="B215" s="26"/>
+    <row r="215" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="35"/>
+      <c r="B215" s="28"/>
       <c r="C215" s="13" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6"/>
     </row>
-    <row r="216" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A216" s="6"/>
-      <c r="B216" s="26"/>
-      <c r="C216" s="16" t="s">
-        <v>44</v>
+    <row r="216" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A216" s="35"/>
+      <c r="B216" s="28"/>
+      <c r="C216" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>30</v>
+        <v>438</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
     </row>
-    <row r="217" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A217" s="6"/>
-      <c r="B217" s="27"/>
-      <c r="C217" s="13" t="s">
-        <v>180</v>
+    <row r="217" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A217" s="36"/>
+      <c r="B217" s="29"/>
+      <c r="C217" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="D217" s="13" t="s">
-        <v>69</v>
+        <v>260</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
@@ -7400,8 +7486,8 @@
     </row>
     <row r="218" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="13"/>
+      <c r="B218" s="14"/>
+      <c r="C218" s="6"/>
       <c r="D218" s="13"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
@@ -7409,17 +7495,17 @@
       <c r="H218" s="6"/>
     </row>
     <row r="219" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A219" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B219" s="25" t="s">
-        <v>70</v>
+      <c r="A219" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B219" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -7427,13 +7513,13 @@
       <c r="H219" s="6"/>
     </row>
     <row r="220" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A220" s="6"/>
-      <c r="B220" s="26"/>
+      <c r="A220" s="35"/>
+      <c r="B220" s="28"/>
       <c r="C220" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D220" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
@@ -7441,27 +7527,27 @@
       <c r="H220" s="6"/>
     </row>
     <row r="221" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A221" s="6"/>
-      <c r="B221" s="26"/>
+      <c r="A221" s="35"/>
+      <c r="B221" s="28"/>
       <c r="C221" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
     </row>
-    <row r="222" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A222" s="6"/>
-      <c r="B222" s="27"/>
-      <c r="C222" s="14" t="s">
-        <v>181</v>
+    <row r="222" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A222" s="36"/>
+      <c r="B222" s="29"/>
+      <c r="C222" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="D222" s="13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
@@ -7470,8 +7556,8 @@
     </row>
     <row r="223" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
-      <c r="B223" s="6"/>
-      <c r="C223" s="14"/>
+      <c r="B223" s="14"/>
+      <c r="C223" s="13"/>
       <c r="D223" s="13"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
@@ -7479,17 +7565,17 @@
       <c r="H223" s="6"/>
     </row>
     <row r="224" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A224" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B224" s="25" t="s">
-        <v>72</v>
+      <c r="A224" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="B224" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
@@ -7497,13 +7583,13 @@
       <c r="H224" s="6"/>
     </row>
     <row r="225" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A225" s="6"/>
-      <c r="B225" s="26"/>
+      <c r="A225" s="35"/>
+      <c r="B225" s="28"/>
       <c r="C225" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D225" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
@@ -7511,13 +7597,13 @@
       <c r="H225" s="6"/>
     </row>
     <row r="226" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A226" s="6"/>
-      <c r="B226" s="26"/>
+      <c r="A226" s="35"/>
+      <c r="B226" s="28"/>
       <c r="C226" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D226" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
@@ -7525,13 +7611,13 @@
       <c r="H226" s="6"/>
     </row>
     <row r="227" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A227" s="6"/>
-      <c r="B227" s="27"/>
+      <c r="A227" s="36"/>
+      <c r="B227" s="29"/>
       <c r="C227" s="14" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D227" s="13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
@@ -7540,7 +7626,7 @@
     </row>
     <row r="228" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
-      <c r="B228" s="6"/>
+      <c r="B228" s="14"/>
       <c r="C228" s="14"/>
       <c r="D228" s="13"/>
       <c r="E228" s="6"/>
@@ -7548,52 +7634,60 @@
       <c r="G228" s="6"/>
       <c r="H228" s="6"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A229" s="6"/>
-      <c r="B229" s="6"/>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
+    <row r="229" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A229" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="B229" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D229" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
     </row>
-    <row r="230" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A230" s="6"/>
-      <c r="B230" s="14"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="13"/>
+    <row r="230" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A230" s="35"/>
+      <c r="B230" s="28"/>
+      <c r="C230" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D230" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
       <c r="H230" s="6"/>
     </row>
-    <row r="231" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A231" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B231" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>42</v>
+    <row r="231" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A231" s="35"/>
+      <c r="B231" s="28"/>
+      <c r="C231" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D231" s="13" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
       <c r="H231" s="6"/>
     </row>
-    <row r="232" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A232" s="6"/>
-      <c r="B232" s="23"/>
-      <c r="C232" s="13" t="s">
-        <v>43</v>
+    <row r="232" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A232" s="36"/>
+      <c r="B232" s="29"/>
+      <c r="C232" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="D232" s="13" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
@@ -7602,40 +7696,36 @@
     </row>
     <row r="233" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
-      <c r="B233" s="23"/>
-      <c r="C233" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D233" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="B233" s="14"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="13"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
       <c r="H233" s="6"/>
     </row>
-    <row r="234" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
-      <c r="B234" s="23"/>
-      <c r="C234" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D234" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="B234" s="14"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="13"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
     </row>
-    <row r="235" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A235" s="6"/>
-      <c r="B235" s="23"/>
-      <c r="C235" s="14" t="s">
-        <v>192</v>
+    <row r="235" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A235" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="B235" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D235" s="13" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
@@ -7643,13 +7733,13 @@
       <c r="H235" s="6"/>
     </row>
     <row r="236" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A236" s="6"/>
-      <c r="B236" s="24"/>
+      <c r="A236" s="35"/>
+      <c r="B236" s="25"/>
       <c r="C236" s="13" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="D236" s="13" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
@@ -7657,37 +7747,41 @@
       <c r="H236" s="6"/>
     </row>
     <row r="237" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A237" s="6"/>
-      <c r="B237" s="14"/>
-      <c r="C237" s="13"/>
-      <c r="D237" s="13"/>
+      <c r="A237" s="35"/>
+      <c r="B237" s="25"/>
+      <c r="C237" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D237" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
       <c r="H237" s="6"/>
     </row>
-    <row r="238" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A238" s="6"/>
-      <c r="B238" s="13"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
+    <row r="238" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A238" s="35"/>
+      <c r="B238" s="25"/>
+      <c r="C238" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D238" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
       <c r="H238" s="6"/>
     </row>
-    <row r="239" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A239" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="B239" s="22" t="s">
+    <row r="239" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A239" s="35"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D239" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="C239" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D239" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
@@ -7695,13 +7789,13 @@
       <c r="H239" s="6"/>
     </row>
     <row r="240" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A240" s="6"/>
-      <c r="B240" s="23"/>
+      <c r="A240" s="36"/>
+      <c r="B240" s="26"/>
       <c r="C240" s="13" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="D240" s="13" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
@@ -7710,7 +7804,7 @@
     </row>
     <row r="241" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
-      <c r="B241" s="23"/>
+      <c r="B241" s="14"/>
       <c r="C241" s="13"/>
       <c r="D241" s="13"/>
       <c r="E241" s="6"/>
@@ -7720,40 +7814,40 @@
     </row>
     <row r="242" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="6"/>
-      <c r="B242" s="23"/>
-      <c r="C242" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D242" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="B242" s="13"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
       <c r="H242" s="6"/>
     </row>
-    <row r="243" spans="1:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="A243" s="6"/>
-      <c r="B243" s="23"/>
+    <row r="243" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A243" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="B243" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="C243" s="13" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="D243" s="13" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
     </row>
-    <row r="244" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A244" s="6"/>
-      <c r="B244" s="24"/>
-      <c r="C244" s="6" t="s">
-        <v>109</v>
+    <row r="244" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A244" s="35"/>
+      <c r="B244" s="25"/>
+      <c r="C244" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="D244" s="13" t="s">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
@@ -7761,541 +7855,541 @@
       <c r="H244" s="6"/>
     </row>
     <row r="245" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A245" s="6"/>
-      <c r="B245" s="14"/>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
+      <c r="A245" s="35"/>
+      <c r="B245" s="25"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="13"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
       <c r="H245" s="6"/>
     </row>
-    <row r="246" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A246" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B246" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>42</v>
+    <row r="246" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A246" s="35"/>
+      <c r="B246" s="25"/>
+      <c r="C246" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D246" s="13" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
       <c r="H246" s="6"/>
     </row>
-    <row r="247" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A247" s="6"/>
-      <c r="B247" s="23"/>
+    <row r="247" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="A247" s="35"/>
+      <c r="B247" s="25"/>
       <c r="C247" s="13" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="D247" s="13" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
       <c r="H247" s="6"/>
     </row>
-    <row r="248" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A248" s="6"/>
-      <c r="B248" s="23"/>
-      <c r="C248" s="16" t="s">
-        <v>44</v>
+    <row r="248" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A248" s="36"/>
+      <c r="B248" s="26"/>
+      <c r="C248" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="D248" s="13" t="s">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
       <c r="H248" s="6"/>
     </row>
-    <row r="249" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
-      <c r="B249" s="23"/>
-      <c r="C249" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D249" s="13" t="s">
-        <v>107</v>
-      </c>
+      <c r="B249" s="14"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
       <c r="H249" s="6"/>
     </row>
-    <row r="250" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A250" s="6"/>
-      <c r="B250" s="24"/>
-      <c r="C250" s="14" t="s">
-        <v>105</v>
+    <row r="250" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A250" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="B250" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D250" s="13" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
       <c r="H250" s="6"/>
     </row>
-    <row r="251" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A251" s="6"/>
-      <c r="B251" s="14"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="13"/>
+    <row r="251" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A251" s="35"/>
+      <c r="B251" s="25"/>
+      <c r="C251" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D251" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
       <c r="H251" s="6"/>
     </row>
-    <row r="252" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A252" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B252" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>42</v>
+    <row r="252" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A252" s="35"/>
+      <c r="B252" s="25"/>
+      <c r="C252" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D252" s="13" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
       <c r="H252" s="6"/>
     </row>
-    <row r="253" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A253" s="6"/>
-      <c r="B253" s="23"/>
+    <row r="253" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="A253" s="35"/>
+      <c r="B253" s="25"/>
       <c r="C253" s="13" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="D253" s="13" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
       <c r="H253" s="6"/>
     </row>
-    <row r="254" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A254" s="6"/>
-      <c r="B254" s="23"/>
-      <c r="C254" s="16" t="s">
-        <v>44</v>
+    <row r="254" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A254" s="36"/>
+      <c r="B254" s="26"/>
+      <c r="C254" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="D254" s="13" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
       <c r="H254" s="6"/>
     </row>
-    <row r="255" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
-      <c r="B255" s="23"/>
-      <c r="C255" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D255" s="13" t="s">
-        <v>108</v>
-      </c>
+      <c r="B255" s="14"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="13"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
       <c r="H255" s="6"/>
     </row>
-    <row r="256" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A256" s="6"/>
-      <c r="B256" s="24"/>
-      <c r="C256" s="14" t="s">
-        <v>192</v>
+    <row r="256" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A256" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="B256" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C256" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D256" s="13" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
       <c r="G256" s="6"/>
       <c r="H256" s="6"/>
     </row>
-    <row r="257" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A257" s="6"/>
-      <c r="B257" s="14"/>
-      <c r="C257" s="14"/>
-      <c r="D257" s="13"/>
+    <row r="257" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A257" s="35"/>
+      <c r="B257" s="25"/>
+      <c r="C257" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D257" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
       <c r="H257" s="6"/>
     </row>
-    <row r="258" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A258" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="B258" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>42</v>
+    <row r="258" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A258" s="35"/>
+      <c r="B258" s="25"/>
+      <c r="C258" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D258" s="13" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
       <c r="H258" s="6"/>
     </row>
-    <row r="259" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A259" s="6"/>
-      <c r="B259" s="23"/>
+    <row r="259" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A259" s="35"/>
+      <c r="B259" s="25"/>
       <c r="C259" s="13" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="D259" s="13" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
       <c r="H259" s="6"/>
     </row>
-    <row r="260" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A260" s="6"/>
-      <c r="B260" s="23"/>
-      <c r="C260" s="16" t="s">
-        <v>44</v>
+    <row r="260" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A260" s="36"/>
+      <c r="B260" s="26"/>
+      <c r="C260" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="D260" s="13" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
       <c r="H260" s="6"/>
     </row>
-    <row r="261" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
-      <c r="B261" s="23"/>
-      <c r="C261" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D261" s="13" t="s">
-        <v>110</v>
-      </c>
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="13"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
       <c r="H261" s="6"/>
     </row>
-    <row r="262" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A262" s="6"/>
-      <c r="B262" s="24"/>
-      <c r="C262" s="14" t="s">
-        <v>192</v>
+    <row r="262" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A262" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="B262" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D262" s="13" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
       <c r="H262" s="6"/>
     </row>
-    <row r="263" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A263" s="6"/>
-      <c r="B263" s="14"/>
-      <c r="C263" s="14"/>
-      <c r="D263" s="13"/>
+    <row r="263" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A263" s="35"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D263" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
       <c r="H263" s="6"/>
     </row>
     <row r="264" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A264" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="B264" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C264" s="13" t="s">
-        <v>42</v>
+      <c r="A264" s="35"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D264" s="13" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
       <c r="H264" s="6"/>
     </row>
-    <row r="265" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A265" s="6"/>
-      <c r="B265" s="23"/>
+    <row r="265" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A265" s="35"/>
+      <c r="B265" s="25"/>
       <c r="C265" s="13" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="D265" s="13" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
       <c r="H265" s="6"/>
     </row>
-    <row r="266" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A266" s="6"/>
-      <c r="B266" s="23"/>
-      <c r="C266" s="16" t="s">
-        <v>44</v>
+    <row r="266" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A266" s="36"/>
+      <c r="B266" s="26"/>
+      <c r="C266" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="D266" s="13" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
       <c r="H266" s="6"/>
     </row>
-    <row r="267" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
-      <c r="B267" s="23"/>
-      <c r="C267" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D267" s="13" t="s">
-        <v>145</v>
-      </c>
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="13"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
       <c r="H267" s="6"/>
     </row>
-    <row r="268" spans="1:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="A268" s="6"/>
-      <c r="B268" s="24"/>
-      <c r="C268" s="14" t="s">
-        <v>192</v>
+    <row r="268" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A268" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="B268" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D268" s="13" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
       <c r="H268" s="6"/>
     </row>
-    <row r="269" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A269" s="6"/>
-      <c r="B269" s="14"/>
-      <c r="C269" s="14"/>
-      <c r="D269" s="13"/>
+    <row r="269" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A269" s="35"/>
+      <c r="B269" s="25"/>
+      <c r="C269" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
       <c r="H269" s="6"/>
     </row>
-    <row r="270" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A270" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B270" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C270" s="13" t="s">
-        <v>42</v>
+    <row r="270" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A270" s="35"/>
+      <c r="B270" s="25"/>
+      <c r="C270" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
       <c r="H270" s="6"/>
     </row>
-    <row r="271" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A271" s="6"/>
-      <c r="B271" s="23"/>
+    <row r="271" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A271" s="35"/>
+      <c r="B271" s="25"/>
       <c r="C271" s="13" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="D271" s="13" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
       <c r="H271" s="6"/>
     </row>
-    <row r="272" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A272" s="6"/>
-      <c r="B272" s="23"/>
-      <c r="C272" s="16" t="s">
-        <v>44</v>
+    <row r="272" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="A272" s="36"/>
+      <c r="B272" s="26"/>
+      <c r="C272" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="D272" s="13" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
       <c r="H272" s="6"/>
     </row>
-    <row r="273" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="6"/>
-      <c r="B273" s="23"/>
-      <c r="C273" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D273" s="13" t="s">
-        <v>135</v>
-      </c>
+      <c r="B273" s="14"/>
+      <c r="C273" s="14"/>
+      <c r="D273" s="13"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
       <c r="H273" s="6"/>
     </row>
-    <row r="274" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A274" s="6"/>
-      <c r="B274" s="24"/>
-      <c r="C274" s="14" t="s">
-        <v>192</v>
+    <row r="274" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A274" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="B274" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D274" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
       <c r="H274" s="6"/>
     </row>
-    <row r="275" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A275" s="6"/>
-      <c r="B275" s="6"/>
-      <c r="C275" s="14"/>
-      <c r="D275" s="13"/>
+    <row r="275" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A275" s="35"/>
+      <c r="B275" s="25"/>
+      <c r="C275" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D275" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
       <c r="H275" s="6"/>
     </row>
-    <row r="276" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A276" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B276" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C276" s="13" t="s">
-        <v>42</v>
+    <row r="276" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A276" s="35"/>
+      <c r="B276" s="25"/>
+      <c r="C276" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D276" s="13" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
       <c r="H276" s="6"/>
     </row>
-    <row r="277" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A277" s="6"/>
-      <c r="B277" s="26"/>
+    <row r="277" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A277" s="35"/>
+      <c r="B277" s="25"/>
       <c r="C277" s="13" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="D277" s="13" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
       <c r="H277" s="6"/>
     </row>
-    <row r="278" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A278" s="6"/>
+    <row r="278" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A278" s="36"/>
       <c r="B278" s="26"/>
-      <c r="C278" s="16" t="s">
-        <v>44</v>
+      <c r="C278" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="D278" s="13" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
       <c r="H278" s="6"/>
     </row>
-    <row r="279" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="6"/>
-      <c r="B279" s="26"/>
-      <c r="C279" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D279" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="13"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
       <c r="G279" s="6"/>
       <c r="H279" s="6"/>
     </row>
     <row r="280" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A280" s="6"/>
-      <c r="B280" s="27"/>
-      <c r="C280" s="14" t="s">
-        <v>205</v>
+      <c r="A280" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B280" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D280" s="13" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
       <c r="H280" s="6"/>
     </row>
-    <row r="281" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A281" s="6"/>
-      <c r="B281" s="6"/>
-      <c r="C281" s="14"/>
-      <c r="D281" s="13"/>
+    <row r="281" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A281" s="35"/>
+      <c r="B281" s="28"/>
+      <c r="C281" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D281" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
       <c r="H281" s="6"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A282" s="6"/>
-      <c r="B282" s="6"/>
-      <c r="C282" s="6"/>
-      <c r="D282" s="6"/>
+    <row r="282" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A282" s="35"/>
+      <c r="B282" s="28"/>
+      <c r="C282" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D282" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
       <c r="H282" s="6"/>
     </row>
-    <row r="283" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A283" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B283" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C283" s="13" t="s">
-        <v>42</v>
+    <row r="283" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A283" s="35"/>
+      <c r="B283" s="28"/>
+      <c r="C283" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="D283" s="13" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
@@ -8303,13 +8397,13 @@
       <c r="H283" s="6"/>
     </row>
     <row r="284" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A284" s="6"/>
-      <c r="B284" s="6"/>
-      <c r="C284" s="13" t="s">
-        <v>43</v>
+      <c r="A284" s="36"/>
+      <c r="B284" s="29"/>
+      <c r="C284" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="D284" s="13" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
@@ -8318,68 +8412,64 @@
     </row>
     <row r="285" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="6"/>
-      <c r="B285" s="6"/>
-      <c r="C285" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D285" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="B285" s="14"/>
+      <c r="C285" s="14"/>
+      <c r="D285" s="13"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
       <c r="H285" s="6"/>
     </row>
-    <row r="286" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="6"/>
-      <c r="B286" s="6"/>
-      <c r="C286" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="D286" s="13" t="s">
-        <v>222</v>
-      </c>
+      <c r="B286" s="14"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
       <c r="H286" s="6"/>
     </row>
-    <row r="287" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A287" s="6"/>
-      <c r="B287" s="6"/>
-      <c r="C287" s="14" t="s">
-        <v>209</v>
+    <row r="287" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A287" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B287" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C287" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D287" s="13" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
       <c r="H287" s="6"/>
     </row>
-    <row r="288" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A288" s="6"/>
-      <c r="B288" s="6"/>
-      <c r="C288" s="14" t="s">
-        <v>212</v>
+      <c r="B288" s="14"/>
+      <c r="C288" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="D288" s="13" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
       <c r="H288" s="6"/>
     </row>
-    <row r="289" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="6"/>
-      <c r="B289" s="6"/>
-      <c r="C289" s="14" t="s">
-        <v>223</v>
+      <c r="B289" s="14"/>
+      <c r="C289" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D289" s="13" t="s">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
@@ -8388,138 +8478,138 @@
     </row>
     <row r="290" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A290" s="6"/>
-      <c r="B290" s="6"/>
+      <c r="B290" s="14"/>
       <c r="C290" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D290" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="D290" s="13" t="s">
-        <v>214</v>
       </c>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
       <c r="G290" s="6"/>
       <c r="H290" s="6"/>
     </row>
-    <row r="291" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="6"/>
-      <c r="B291" s="6"/>
+      <c r="B291" s="14"/>
       <c r="C291" s="14" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D291" s="13" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
       <c r="H291" s="6"/>
     </row>
-    <row r="292" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="6"/>
-      <c r="B292" s="6"/>
-      <c r="C292" s="13" t="s">
-        <v>231</v>
+      <c r="B292" s="14"/>
+      <c r="C292" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="D292" s="13" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
       <c r="G292" s="6"/>
       <c r="H292" s="6"/>
     </row>
-    <row r="293" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A293" s="6"/>
-      <c r="B293" s="6"/>
+      <c r="B293" s="14"/>
       <c r="C293" s="14" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="D293" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
       <c r="H293" s="6"/>
     </row>
-    <row r="294" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A294" s="6"/>
-      <c r="B294" s="6"/>
+      <c r="B294" s="14"/>
       <c r="C294" s="14" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="D294" s="13" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
       <c r="H294" s="6"/>
     </row>
-    <row r="295" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A295" s="6"/>
-      <c r="B295" s="6"/>
+      <c r="B295" s="14"/>
       <c r="C295" s="14" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="D295" s="13" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
       <c r="H295" s="6"/>
     </row>
-    <row r="296" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A296" s="6"/>
-      <c r="B296" s="6"/>
-      <c r="C296" s="14" t="s">
-        <v>235</v>
+      <c r="B296" s="14"/>
+      <c r="C296" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="D296" s="13" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
       <c r="H296" s="6"/>
     </row>
-    <row r="297" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="6"/>
-      <c r="B297" s="6"/>
+      <c r="B297" s="14"/>
       <c r="C297" s="14" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D297" s="13" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
       <c r="H297" s="6"/>
     </row>
-    <row r="298" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="6"/>
-      <c r="B298" s="6"/>
+      <c r="B298" s="14"/>
       <c r="C298" s="14" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D298" s="13" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
       <c r="H298" s="6"/>
     </row>
-    <row r="299" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="6"/>
-      <c r="B299" s="6"/>
+      <c r="B299" s="14"/>
       <c r="C299" s="14" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D299" s="13" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
@@ -8527,26 +8617,142 @@
       <c r="H299" s="6"/>
     </row>
     <row r="300" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C300" s="3"/>
+      <c r="A300" s="6"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D300" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E300" s="6"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
+    </row>
+    <row r="301" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A301" s="6"/>
+      <c r="B301" s="14"/>
+      <c r="C301" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D301" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="6"/>
+    </row>
+    <row r="302" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A302" s="6"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D302" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E302" s="6"/>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
+      <c r="H302" s="6"/>
+    </row>
+    <row r="303" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A303" s="6"/>
+      <c r="B303" s="6"/>
+      <c r="C303" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D303" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E303" s="6"/>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="6"/>
+    </row>
+    <row r="304" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C304" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B73:B77"/>
+  <mergeCells count="102">
+    <mergeCell ref="A262:A266"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A274:A278"/>
+    <mergeCell ref="A280:A284"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="A235:A240"/>
+    <mergeCell ref="A243:A248"/>
+    <mergeCell ref="A250:A254"/>
+    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="A207:A210"/>
+    <mergeCell ref="A212:A217"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="A224:A227"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="A197:A200"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A151:A154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A167:A170"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A136:A139"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B256:B260"/>
+    <mergeCell ref="B262:B266"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B274:B278"/>
+    <mergeCell ref="B280:B284"/>
+    <mergeCell ref="B250:B254"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="B190:B194"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="B207:B210"/>
+    <mergeCell ref="B212:B217"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="B235:B240"/>
+    <mergeCell ref="B243:B248"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="B177:B181"/>
+    <mergeCell ref="B155:B159"/>
     <mergeCell ref="B146:B149"/>
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="B90:B93"/>
@@ -8560,28 +8766,19 @@
     <mergeCell ref="B131:B134"/>
     <mergeCell ref="B136:B139"/>
     <mergeCell ref="B141:B144"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B172:B176"/>
-    <mergeCell ref="B246:B250"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B185:B189"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="B197:B200"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="B219:B222"/>
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="B231:B236"/>
-    <mergeCell ref="B239:B244"/>
-    <mergeCell ref="B252:B256"/>
-    <mergeCell ref="B258:B262"/>
-    <mergeCell ref="B264:B268"/>
-    <mergeCell ref="B270:B274"/>
-    <mergeCell ref="B276:B280"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B73:B77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8590,10 +8787,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8603,29 +8800,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -8636,14 +8833,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8654,14 +8851,14 @@
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8672,14 +8869,14 @@
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8690,14 +8887,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8708,14 +8905,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -8726,14 +8923,14 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -8744,14 +8941,14 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -8759,13 +8956,14 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -8775,14 +8973,14 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -8790,15 +8988,16 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -8808,14 +9007,14 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -8823,13 +9022,24 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
+      <c r="D26" s="38" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="38" t="s">
+        <v>432</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8839,10 +9049,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8871,30 +9081,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -8902,13 +9112,13 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -8916,13 +9126,13 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -8930,13 +9140,13 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -8944,13 +9154,13 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -8958,17 +9168,17 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>295</v>
+      <c r="A7" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>286</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -8976,13 +9186,13 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -8990,13 +9200,13 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -9004,13 +9214,13 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -9018,13 +9228,13 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -9032,13 +9242,13 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -9046,13 +9256,13 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -9060,13 +9270,13 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -9074,13 +9284,13 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -9098,17 +9308,17 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>297</v>
+      <c r="A17" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>288</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -9116,13 +9326,13 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -9130,13 +9340,13 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -9144,13 +9354,13 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -9158,13 +9368,13 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -9172,13 +9382,13 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -9186,13 +9396,13 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="6" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -9200,13 +9410,13 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="6" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -9214,13 +9424,13 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="6" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -9238,17 +9448,17 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>306</v>
+      <c r="A27" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>297</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -9256,13 +9466,13 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -9270,13 +9480,13 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -9284,13 +9494,13 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -9298,13 +9508,13 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -9312,13 +9522,13 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -9326,13 +9536,13 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -9350,17 +9560,17 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>312</v>
+      <c r="A35" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>303</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -9368,13 +9578,13 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -9382,13 +9592,13 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -9396,13 +9606,13 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -9410,13 +9620,13 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -9424,13 +9634,13 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -9438,13 +9648,13 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -9462,17 +9672,17 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>314</v>
+      <c r="A43" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>305</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -9480,13 +9690,13 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -9494,13 +9704,13 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -9508,13 +9718,13 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -9522,13 +9732,13 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -9536,13 +9746,13 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -9550,13 +9760,13 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="6" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -9574,17 +9784,17 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>318</v>
+      <c r="A51" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>309</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -9592,13 +9802,13 @@
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -9606,13 +9816,13 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
-      <c r="B53" s="32"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -9620,13 +9830,13 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="32"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -9634,13 +9844,13 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
-      <c r="B55" s="32"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -9648,13 +9858,13 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="29"/>
-      <c r="B56" s="32"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -9662,13 +9872,13 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="6" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -9686,17 +9896,17 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>326</v>
+      <c r="A59" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>317</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -9704,13 +9914,13 @@
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
-      <c r="B60" s="32"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -9718,13 +9928,13 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="29"/>
-      <c r="B61" s="32"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -9732,13 +9942,13 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="29"/>
-      <c r="B62" s="32"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -9746,13 +9956,13 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="29"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -9760,13 +9970,13 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="29"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -9774,13 +9984,13 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="30"/>
-      <c r="B65" s="33"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="6" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -9798,17 +10008,17 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="B67" s="31" t="s">
-        <v>328</v>
+      <c r="A67" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>319</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -9816,13 +10026,13 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
-      <c r="B68" s="32"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -9830,13 +10040,13 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="29"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -9844,13 +10054,13 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="29"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -9858,13 +10068,13 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="29"/>
-      <c r="B71" s="32"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -9872,13 +10082,13 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="29"/>
-      <c r="B72" s="32"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -9886,13 +10096,13 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="30"/>
-      <c r="B73" s="33"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="6" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -9910,17 +10120,17 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>332</v>
+      <c r="A75" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>323</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -9928,13 +10138,13 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="29"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -9942,13 +10152,13 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
-      <c r="B77" s="32"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -9956,13 +10166,13 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="29"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -9970,13 +10180,13 @@
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -9984,13 +10194,13 @@
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="29"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -9998,13 +10208,13 @@
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="30"/>
-      <c r="B81" s="33"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="6" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -10032,17 +10242,17 @@
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>339</v>
+      <c r="A84" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>330</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -10050,13 +10260,13 @@
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="29"/>
-      <c r="B85" s="32"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -10064,13 +10274,13 @@
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="29"/>
-      <c r="B86" s="32"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -10078,13 +10288,13 @@
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="29"/>
-      <c r="B87" s="32"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -10092,13 +10302,13 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="29"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -10106,13 +10316,13 @@
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="29"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="31"/>
       <c r="C89" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -10120,13 +10330,13 @@
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="30"/>
-      <c r="B90" s="33"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="6" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -10144,17 +10354,17 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>342</v>
+      <c r="A92" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>333</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -10162,13 +10372,13 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="29"/>
-      <c r="B93" s="32"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="31"/>
       <c r="C93" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -10176,13 +10386,13 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="29"/>
-      <c r="B94" s="32"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -10190,13 +10400,13 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="29"/>
-      <c r="B95" s="32"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -10204,13 +10414,13 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="29"/>
-      <c r="B96" s="32"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="31"/>
       <c r="C96" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -10218,13 +10428,13 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="29"/>
-      <c r="B97" s="32"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="31"/>
       <c r="C97" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -10232,13 +10442,13 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="30"/>
-      <c r="B98" s="33"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="6" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -10256,17 +10466,17 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="B100" s="31" t="s">
-        <v>345</v>
+      <c r="A100" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>336</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -10274,13 +10484,13 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="29"/>
-      <c r="B101" s="32"/>
+      <c r="A101" s="35"/>
+      <c r="B101" s="31"/>
       <c r="C101" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -10288,13 +10498,13 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="29"/>
-      <c r="B102" s="32"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="31"/>
       <c r="C102" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -10302,13 +10512,13 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="29"/>
-      <c r="B103" s="32"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="31"/>
       <c r="C103" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -10316,13 +10526,13 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="29"/>
-      <c r="B104" s="32"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="31"/>
       <c r="C104" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -10330,13 +10540,13 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="29"/>
-      <c r="B105" s="32"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="31"/>
       <c r="C105" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -10344,26 +10554,212 @@
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="30"/>
-      <c r="B106" s="33"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="6" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
+    <row r="107" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="35"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="35"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="35"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="35"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="35"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="35"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="36"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="D114" s="39" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="B116" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="35"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="35"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="35"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="35"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="35"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="35"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="36"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="D123" s="39" t="s">
+        <v>435</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B35:B41"/>
+  <mergeCells count="30">
+    <mergeCell ref="A107:A114"/>
+    <mergeCell ref="B107:B114"/>
+    <mergeCell ref="B116:B123"/>
+    <mergeCell ref="A116:A123"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="B100:B106"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A35:A41"/>
     <mergeCell ref="A43:A49"/>
     <mergeCell ref="A51:A57"/>
     <mergeCell ref="A59:A65"/>
@@ -10372,19 +10768,11 @@
     <mergeCell ref="B59:B65"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="B43:B49"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="B100:B106"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B35:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
